--- a/Supplementary/Supplementary_file_4.xlsx
+++ b/Supplementary/Supplementary_file_4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kostaskons94/MBG/PROJECTS/ZWA2/RESULTS/PAPER/ORIGINAL/ZWA2_COMPANION/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kostaskons94/MBG/PROJECTS/ZWA2/RESULTS/PAPER/SUBMISSIONS/Bioinformatics/ViRAE_COMPANION/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC572BAE-4A96-A844-A205-3E7305EE0AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F2669E-BE30-EB43-A7AF-BFBD646CC34A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{2A6DE71A-F9DD-8040-8E18-0C811864F840}"/>
   </bookViews>
@@ -1011,9 +1011,6 @@
     <t>SORTMERNA method</t>
   </si>
   <si>
-    <t>ZWA2 method</t>
-  </si>
-  <si>
     <t>Human respiratory syncytial virus B</t>
   </si>
   <si>
@@ -1030,6 +1027,9 @@
   </si>
   <si>
     <t>Virus coverage (%)</t>
+  </si>
+  <si>
+    <t>ViRAE method</t>
   </si>
 </sst>
 </file>
@@ -1479,10 +1479,10 @@
   <dimension ref="A1:Q275"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P2" sqref="P2"/>
+      <selection pane="bottomRight" activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1528,7 +1528,7 @@
       <c r="M1" s="21"/>
       <c r="N1" s="21"/>
       <c r="O1" s="22" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="P1" s="22"/>
       <c r="Q1" s="22"/>
@@ -1547,13 +1547,13 @@
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>321</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>322</v>
@@ -1562,7 +1562,7 @@
         <v>321</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>322</v>
@@ -1571,7 +1571,7 @@
         <v>321</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>322</v>
@@ -1580,7 +1580,7 @@
         <v>321</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q2" s="8" t="s">
         <v>322</v>
@@ -3876,7 +3876,7 @@
         <v>53</v>
       </c>
       <c r="D46" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E46">
         <v>9711</v>
@@ -8063,7 +8063,7 @@
         <v>140</v>
       </c>
       <c r="D125" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E125">
         <v>15219</v>
@@ -8116,7 +8116,7 @@
         <v>141</v>
       </c>
       <c r="D126" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E126">
         <v>15263</v>
@@ -14688,7 +14688,7 @@
         <v>284</v>
       </c>
       <c r="D250" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E250">
         <v>7101</v>
@@ -15218,7 +15218,7 @@
         <v>301</v>
       </c>
       <c r="D260" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E260">
         <v>7053</v>
